--- a/src/Tests/Samples.VerifyWorkbook.verified.xlsx
+++ b/src/Tests/Samples.VerifyWorkbook.verified.xlsx
@@ -460,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -471,7 +471,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
